--- a/docentes/Silva Villegas Mario - Estadisticos 20242.xlsx
+++ b/docentes/Silva Villegas Mario - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Mat</t>
   </si>
@@ -79,82 +79,115 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>COBOS</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>COBOS</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
+    <t>CAMPOS</t>
   </si>
   <si>
     <t>MOLINA</t>
   </si>
   <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>DOLORES</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>LAGUNA</t>
   </si>
   <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
     <t>SUAREZ</t>
   </si>
   <si>
-    <t>NOLASCO</t>
-  </si>
-  <si>
-    <t>TIZA</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
+    <t>CABRERA</t>
   </si>
   <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>VICTOR YAEL</t>
+  </si>
+  <si>
+    <t>UZIEL</t>
+  </si>
+  <si>
+    <t>CARLOS ARGEL</t>
+  </si>
+  <si>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>YOLET</t>
+  </si>
+  <si>
+    <t>FABIAN ALEJANDRO</t>
+  </si>
+  <si>
     <t>SERGIO GISELL</t>
   </si>
   <si>
     <t>GONZALO</t>
   </si>
   <si>
+    <t>MIRANDA ALIZEET</t>
+  </si>
+  <si>
     <t>JOSE ANTONIO</t>
   </si>
   <si>
-    <t>SABDY</t>
-  </si>
-  <si>
     <t>SERGIO JOSUE</t>
   </si>
   <si>
-    <t>YOLET</t>
-  </si>
-  <si>
-    <t>CRISTIAN OSMAR</t>
-  </si>
-  <si>
-    <t>JOSUE GUSTAVO</t>
+    <t>MARCO</t>
   </si>
   <si>
     <t>VICTOR MANUEL</t>
@@ -681,16 +714,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>80.56</v>
+      </c>
+      <c r="H2">
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,16 +740,19 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>73.68000000000001</v>
+      </c>
+      <c r="H3">
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -727,16 +766,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -795,16 +837,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>55.56</v>
+        <v>80.56</v>
       </c>
       <c r="H2">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -821,16 +863,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>68.42</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -847,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +908,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,16 +943,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920090</v>
+        <v>24330051920092</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -924,16 +966,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920036</v>
+        <v>24330051920122</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -947,22 +989,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920389</v>
+        <v>24330051920315</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -970,16 +1012,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920329</v>
+        <v>23330051920211</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -993,22 +1035,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920332</v>
+        <v>21330051920007</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1016,16 +1058,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920007</v>
+        <v>22330051920413</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1039,22 +1081,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920359</v>
+        <v>24330051920090</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1062,22 +1104,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920356</v>
+        <v>23330051920036</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1085,24 +1127,116 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920193</v>
+        <v>24330051920107</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>22330051920389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>23330051920332</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>22330051920177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="G10">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>22330051920193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
     </row>
